--- a/03_手順/handson手順.xlsx
+++ b/03_手順/handson手順.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\33_team若手\05_ぜきLabo\03_Linux調査ハンズオン\03_手順\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DB0D04-88A1-4B95-AEF1-8BF48634CE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016BF853-1190-4199-8B67-D30F6035B1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9EF5547-68E5-427B-AF4B-CF2E24DA9505}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="184">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -365,22 +365,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.画面右の「キーペアを作成」を選択し以下の設定を入れてスタックを実行する。</t>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2-1.ステップ 1：キーペア</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -476,10 +460,6 @@
     <rPh sb="0" eb="1">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここにコピー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1216,10 +1196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3-2-1.From：/var/log/messages</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3-2-2.To:「...」を押下し「&lt;handson関連のフォルダ&gt;\02_ログ格納先」を選択する</t>
     <rPh sb="15" eb="17">
       <t>オウカ</t>
@@ -1258,10 +1234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1-3.# ls -l | grep messages</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.正常に削除されており、ファイルが存在していないことを確認する。</t>
     <rPh sb="2" eb="4">
       <t>セイジョウ</t>
@@ -1594,9 +1566,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/var/log/messages</t>
-  </si>
-  <si>
     <t>rm /var/tmp/messages</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1606,6 +1575,37 @@
   </si>
   <si>
     <t>exit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2-1.From：/var/tmp/messages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.画面右の「キーペアを作成」を選択し以下の設定を入れてキーペアを作成する。</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/var/tmp/messages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3.# ls -l /var/tmp | grep messages</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1634,14 +1634,6 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1674,6 +1666,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF16191F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1830,7 +1828,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1866,19 +1864,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5345,7 +5343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C9BCEE-2A34-4D61-B2F3-246F018972E5}">
   <dimension ref="B3:CO9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5560,8 +5558,8 @@
     <row r="5" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="14" t="s">
-        <v>164</v>
+      <c r="D5" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="AG5" s="6"/>
       <c r="AH5" s="5"/>
@@ -5719,9 +5717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F8E434-6362-46E1-AF08-3FAD3C1BEC51}">
   <dimension ref="B3:CO61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH37" sqref="AH37"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5949,7 +5945,7 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AG6" s="6"/>
       <c r="AH6" s="5"/>
@@ -6044,8 +6040,8 @@
       <c r="BM8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BN8" s="12" t="s">
-        <v>55</v>
+      <c r="BN8" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="BO8" s="3"/>
       <c r="BP8" s="3"/>
@@ -6354,12 +6350,12 @@
     <row r="19" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="13" t="s">
-        <v>41</v>
+      <c r="D19" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="AG19" s="6"/>
       <c r="AH19" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BK19" s="6"/>
       <c r="BL19" s="5">
@@ -6369,17 +6365,17 @@
         <v>7</v>
       </c>
       <c r="BN19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="CO19" s="6"/>
     </row>
     <row r="20" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="12"/>
       <c r="AG20" s="6"/>
       <c r="AH20" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="BK20" s="6"/>
       <c r="BL20" s="5"/>
@@ -6388,9 +6384,9 @@
     <row r="21" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="12"/>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG21" s="6"/>
       <c r="AH21" s="5"/>
@@ -6401,9 +6397,9 @@
     <row r="22" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="12"/>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG22" s="6"/>
       <c r="AH22" s="5"/>
@@ -6416,7 +6412,7 @@
       <c r="C23" s="18"/>
       <c r="D23" s="5"/>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG23" s="6"/>
       <c r="AH23" s="5"/>
@@ -6429,7 +6425,7 @@
       <c r="C24" s="18"/>
       <c r="D24" s="5"/>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG24" s="6"/>
       <c r="AH24" s="5"/>
@@ -6608,7 +6604,7 @@
       <c r="BM26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BN26" s="12" t="s">
+      <c r="BN26" s="11" t="s">
         <v>27</v>
       </c>
       <c r="BO26" s="3"/>
@@ -6918,7 +6914,7 @@
     <row r="37" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>15</v>
       </c>
       <c r="AG37" s="6"/>
@@ -6940,7 +6936,7 @@
     <row r="38" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>16</v>
       </c>
       <c r="AG38" s="6"/>
@@ -6952,7 +6948,7 @@
     <row r="39" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="13"/>
+      <c r="D39" s="12"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="5"/>
       <c r="BK39" s="6"/>
@@ -6962,7 +6958,7 @@
     <row r="40" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="13"/>
+      <c r="D40" s="12"/>
       <c r="E40" t="s">
         <v>19</v>
       </c>
@@ -6975,7 +6971,7 @@
     <row r="41" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="13"/>
+      <c r="D41" s="12"/>
       <c r="F41" t="s">
         <v>17</v>
       </c>
@@ -7234,10 +7230,10 @@
         <v>5</v>
       </c>
       <c r="C55" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -7269,7 +7265,7 @@
       <c r="AF55" s="3"/>
       <c r="AG55" s="4"/>
       <c r="AH55" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI55" s="3"/>
       <c r="AJ55" s="3"/>
@@ -7354,12 +7350,12 @@
     <row r="58" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
-      <c r="D58" s="13" t="s">
-        <v>50</v>
+      <c r="D58" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="AG58" s="6"/>
       <c r="AH58" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BK58" s="6"/>
       <c r="BL58" s="5"/>
@@ -7368,9 +7364,9 @@
     <row r="59" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="12"/>
       <c r="E59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG59" s="6"/>
       <c r="AH59" s="5"/>
@@ -7381,13 +7377,11 @@
     <row r="60" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
-      <c r="D60" s="13"/>
+      <c r="D60" s="12"/>
       <c r="E60" t="s">
-        <v>52</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>53</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G60" s="15"/>
       <c r="AG60" s="6"/>
       <c r="AH60" s="5"/>
       <c r="BK60" s="6"/>
@@ -7637,7 +7631,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -7764,10 +7758,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -7799,7 +7793,7 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
@@ -7945,11 +7939,11 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG17" s="6"/>
       <c r="AH17" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BK17" s="6"/>
       <c r="BL17" s="5"/>
@@ -7959,7 +7953,7 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AG18" s="6"/>
       <c r="AH18" s="5"/>
@@ -7971,7 +7965,7 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AG19" s="6"/>
       <c r="AH19" s="5"/>
@@ -8023,11 +8017,11 @@
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG24" s="6"/>
       <c r="AH24" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BK24" s="6"/>
       <c r="BL24" s="5">
@@ -8037,7 +8031,7 @@
         <v>7</v>
       </c>
       <c r="BN24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="CO24" s="6"/>
     </row>
@@ -8046,7 +8040,7 @@
       <c r="C25" s="18"/>
       <c r="D25" s="5"/>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AG25" s="6"/>
       <c r="AH25" s="5"/>
@@ -8059,7 +8053,7 @@
       <c r="C26" s="18"/>
       <c r="D26" s="5"/>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AG26" s="6"/>
       <c r="AH26" s="5"/>
@@ -8072,7 +8066,7 @@
       <c r="C27" s="18"/>
       <c r="D27" s="5"/>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AG27" s="6"/>
       <c r="AH27" s="5"/>
@@ -8085,7 +8079,7 @@
       <c r="C28" s="18"/>
       <c r="D28" s="5"/>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG28" s="6"/>
       <c r="AH28" s="5"/>
@@ -8098,7 +8092,7 @@
       <c r="C29" s="18"/>
       <c r="D29" s="5"/>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AG29" s="6"/>
       <c r="AH29" s="5"/>
@@ -8235,10 +8229,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -8270,7 +8264,7 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
@@ -8337,7 +8331,7 @@
       <c r="C35" s="18"/>
       <c r="D35" s="5"/>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AG35" s="6"/>
       <c r="AH35" s="5"/>
@@ -8350,7 +8344,7 @@
       <c r="C36" s="18"/>
       <c r="D36" s="5"/>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AG36" s="6"/>
       <c r="AH36" s="5"/>
@@ -8497,10 +8491,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -8532,7 +8526,7 @@
       <c r="AF42" s="3"/>
       <c r="AG42" s="4"/>
       <c r="AH42" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
@@ -8570,7 +8564,7 @@
         <v>7</v>
       </c>
       <c r="BN42" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="BO42" s="3"/>
       <c r="BP42" s="3"/>
@@ -8605,17 +8599,17 @@
       <c r="C43" s="18"/>
       <c r="D43" s="5"/>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG43" s="6"/>
       <c r="AH43" s="5"/>
       <c r="AI43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BK43" s="6"/>
       <c r="BL43" s="5"/>
       <c r="BN43" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="CO43" s="6"/>
     </row>
@@ -8624,17 +8618,17 @@
       <c r="C44" s="18"/>
       <c r="D44" s="5"/>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AG44" s="6"/>
       <c r="AH44" s="5"/>
       <c r="AI44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BK44" s="6"/>
       <c r="BL44" s="5"/>
       <c r="BN44" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="CO44" s="6"/>
     </row>
@@ -8643,12 +8637,12 @@
       <c r="C45" s="18"/>
       <c r="D45" s="5"/>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AG45" s="6"/>
       <c r="AH45" s="5"/>
       <c r="AI45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BK45" s="6"/>
       <c r="BL45" s="5"/>
@@ -8753,10 +8747,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -8788,7 +8782,7 @@
       <c r="AF47" s="3"/>
       <c r="AG47" s="4"/>
       <c r="AH47" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
@@ -8826,7 +8820,7 @@
         <v>7</v>
       </c>
       <c r="BN47" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="BO47" s="3"/>
       <c r="BP47" s="3"/>
@@ -8861,17 +8855,17 @@
       <c r="C48" s="18"/>
       <c r="D48" s="5"/>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG48" s="6"/>
       <c r="AH48" s="5"/>
       <c r="AI48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BK48" s="6"/>
       <c r="BL48" s="5"/>
       <c r="BN48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="CO48" s="6"/>
     </row>
@@ -8880,12 +8874,12 @@
       <c r="C49" s="18"/>
       <c r="D49" s="5"/>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG49" s="6"/>
       <c r="AH49" s="5"/>
       <c r="AI49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BK49" s="6"/>
       <c r="BL49" s="5"/>
@@ -9000,10 +8994,10 @@
         <v>5</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -9035,7 +9029,7 @@
       <c r="AF52" s="3"/>
       <c r="AG52" s="4"/>
       <c r="AH52" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
@@ -9073,7 +9067,7 @@
         <v>7</v>
       </c>
       <c r="BN52" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="BO52" s="3"/>
       <c r="BP52" s="3"/>
@@ -9108,17 +9102,17 @@
       <c r="C53" s="18"/>
       <c r="D53" s="5"/>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG53" s="6"/>
       <c r="AH53" s="5"/>
       <c r="AI53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BK53" s="6"/>
       <c r="BL53" s="5"/>
       <c r="BN53" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="CO53" s="6"/>
     </row>
@@ -9136,11 +9130,11 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AG55" s="6"/>
       <c r="AH55" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BK55" s="6"/>
       <c r="BL55" s="5">
@@ -9150,7 +9144,7 @@
         <v>7</v>
       </c>
       <c r="BN55" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="CO55" s="6"/>
     </row>
@@ -9159,14 +9153,14 @@
       <c r="C56" s="18"/>
       <c r="D56" s="5"/>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG56" s="6"/>
       <c r="AH56" s="5"/>
       <c r="BK56" s="6"/>
       <c r="BL56" s="5"/>
       <c r="BN56" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="CO56" s="6"/>
     </row>
@@ -9175,7 +9169,7 @@
       <c r="C57" s="18"/>
       <c r="D57" s="5"/>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AG57" s="6"/>
       <c r="AH57" s="5"/>
@@ -9197,11 +9191,11 @@
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AG59" s="6"/>
       <c r="AH59" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BK59" s="6"/>
       <c r="BL59" s="5">
@@ -9211,7 +9205,7 @@
         <v>7</v>
       </c>
       <c r="BN59" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="CO59" s="6"/>
     </row>
@@ -9220,11 +9214,11 @@
       <c r="C60" s="18"/>
       <c r="D60" s="5"/>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG60" s="6"/>
-      <c r="AH60" s="15" t="s">
-        <v>104</v>
+      <c r="AH60" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="BK60" s="6"/>
       <c r="BL60" s="5"/>
@@ -9235,7 +9229,7 @@
       <c r="C61" s="18"/>
       <c r="D61" s="5"/>
       <c r="AG61" s="6"/>
-      <c r="AH61" s="15"/>
+      <c r="AH61" s="14"/>
       <c r="BK61" s="6"/>
       <c r="BL61" s="5"/>
       <c r="CO61" s="6"/>
@@ -9244,11 +9238,11 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AG62" s="6"/>
-      <c r="AH62" s="15" t="s">
-        <v>110</v>
+      <c r="AH62" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="BK62" s="6"/>
       <c r="BL62" s="5">
@@ -9258,7 +9252,7 @@
         <v>7</v>
       </c>
       <c r="BN62" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="CO62" s="6"/>
     </row>
@@ -9267,17 +9261,17 @@
       <c r="C63" s="18"/>
       <c r="D63" s="5"/>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG63" s="6"/>
-      <c r="AH63" s="15"/>
+      <c r="AH63" s="14"/>
       <c r="AI63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BK63" s="6"/>
       <c r="BL63" s="5"/>
       <c r="BN63" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="CO63" s="6"/>
     </row>
@@ -9286,17 +9280,17 @@
       <c r="C64" s="18"/>
       <c r="D64" s="5"/>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG64" s="6"/>
       <c r="AH64" s="5"/>
       <c r="AI64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BK64" s="6"/>
       <c r="BL64" s="5"/>
       <c r="BN64" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="CO64" s="6"/>
     </row>
@@ -9305,12 +9299,12 @@
       <c r="C65" s="18"/>
       <c r="D65" s="5"/>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AG65" s="6"/>
       <c r="AH65" s="5"/>
       <c r="AI65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="BK65" s="6"/>
       <c r="BL65" s="5"/>
@@ -9321,7 +9315,7 @@
       <c r="C66" s="18"/>
       <c r="D66" s="5"/>
       <c r="F66" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AG66" s="6"/>
       <c r="AH66" s="5"/>
@@ -9428,10 +9422,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -9463,7 +9457,7 @@
       <c r="AF68" s="3"/>
       <c r="AG68" s="4"/>
       <c r="AH68" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AI68" s="3"/>
       <c r="AJ68" s="3"/>
@@ -9501,7 +9495,7 @@
         <v>7</v>
       </c>
       <c r="BN68" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="BO68" s="3"/>
       <c r="BP68" s="3"/>
@@ -9536,12 +9530,12 @@
       <c r="C69" s="18"/>
       <c r="D69" s="5"/>
       <c r="E69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG69" s="6"/>
       <c r="AH69" s="5"/>
       <c r="AI69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BK69" s="6"/>
       <c r="BL69" s="5"/>
@@ -9561,11 +9555,11 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG71" s="6"/>
       <c r="AH71" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BK71" s="6"/>
       <c r="BL71" s="5">
@@ -9575,7 +9569,7 @@
         <v>7</v>
       </c>
       <c r="BN71" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="CO71" s="6"/>
     </row>
@@ -9584,16 +9578,16 @@
       <c r="C72" s="18"/>
       <c r="D72" s="5"/>
       <c r="E72" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AG72" s="6"/>
-      <c r="AH72" s="15" t="s">
-        <v>125</v>
+      <c r="AH72" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="BK72" s="6"/>
       <c r="BL72" s="5"/>
       <c r="BN72" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="CO72" s="6"/>
     </row>
@@ -9602,7 +9596,7 @@
       <c r="C73" s="18"/>
       <c r="D73" s="5"/>
       <c r="E73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AG73" s="6"/>
       <c r="AH73" s="5"/>
@@ -9624,11 +9618,11 @@
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG75" s="6"/>
       <c r="AH75" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BK75" s="6"/>
       <c r="BL75" s="5">
@@ -9638,7 +9632,7 @@
         <v>7</v>
       </c>
       <c r="BN75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CO75" s="6"/>
     </row>
@@ -9647,10 +9641,10 @@
       <c r="C76" s="18"/>
       <c r="D76" s="5"/>
       <c r="E76" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AG76" s="6"/>
-      <c r="AH76" s="15"/>
+      <c r="AH76" s="14"/>
       <c r="BK76" s="6"/>
       <c r="BL76" s="5"/>
       <c r="CO76" s="6"/>
@@ -9660,10 +9654,10 @@
       <c r="C77" s="18"/>
       <c r="D77" s="5"/>
       <c r="E77" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AG77" s="6"/>
-      <c r="AH77" s="15"/>
+      <c r="AH77" s="14"/>
       <c r="BK77" s="6"/>
       <c r="BL77" s="5"/>
       <c r="CO77" s="6"/>
@@ -9673,10 +9667,10 @@
       <c r="C78" s="18"/>
       <c r="D78" s="5"/>
       <c r="F78" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="AG78" s="6"/>
-      <c r="AH78" s="15"/>
+      <c r="AH78" s="14"/>
       <c r="BK78" s="6"/>
       <c r="BL78" s="5"/>
       <c r="CO78" s="6"/>
@@ -9686,10 +9680,10 @@
       <c r="C79" s="18"/>
       <c r="D79" s="5"/>
       <c r="F79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG79" s="6"/>
-      <c r="AH79" s="15"/>
+      <c r="AH79" s="14"/>
       <c r="BK79" s="6"/>
       <c r="BL79" s="5"/>
       <c r="CO79" s="6"/>
@@ -9699,7 +9693,7 @@
       <c r="C80" s="18"/>
       <c r="D80" s="5"/>
       <c r="AG80" s="6"/>
-      <c r="AH80" s="15"/>
+      <c r="AH80" s="14"/>
       <c r="BK80" s="6"/>
       <c r="BL80" s="5"/>
       <c r="CO80" s="6"/>
@@ -9800,6 +9794,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C52:C67"/>
+    <mergeCell ref="B47:B51"/>
     <mergeCell ref="C47:C51"/>
     <mergeCell ref="B68:B81"/>
     <mergeCell ref="C68:C81"/>
@@ -9815,8 +9811,6 @@
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="C42:C46"/>
     <mergeCell ref="B52:B67"/>
-    <mergeCell ref="C52:C67"/>
-    <mergeCell ref="B47:B51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9829,7 +9823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212E3485-DD1F-4746-A8B8-3B078135C13D}">
   <dimension ref="B3:CO37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9946,10 +9940,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -9981,7 +9975,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
@@ -10019,7 +10013,7 @@
         <v>7</v>
       </c>
       <c r="BN4" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="BO4" s="3"/>
       <c r="BP4" s="3"/>
@@ -10054,14 +10048,14 @@
       <c r="C5" s="18"/>
       <c r="D5" s="5"/>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AG5" s="6"/>
       <c r="AH5" s="5"/>
       <c r="BK5" s="6"/>
       <c r="BL5" s="5"/>
       <c r="BN5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="CO5" s="6"/>
     </row>
@@ -10070,7 +10064,7 @@
       <c r="C6" s="18"/>
       <c r="D6" s="5"/>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AG6" s="6"/>
       <c r="AH6" s="5"/>
@@ -10083,7 +10077,7 @@
       <c r="C7" s="18"/>
       <c r="D7" s="5"/>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="AG7" s="6"/>
       <c r="AH7" s="5"/>
@@ -10105,11 +10099,11 @@
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AG9" s="6"/>
       <c r="AH9" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="BK9" s="6"/>
       <c r="BL9" s="5">
@@ -10119,7 +10113,7 @@
         <v>7</v>
       </c>
       <c r="BN9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="CO9" s="6"/>
     </row>
@@ -10128,7 +10122,7 @@
       <c r="C10" s="18"/>
       <c r="D10" s="5"/>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AG10" s="6"/>
       <c r="AH10" s="5"/>
@@ -10150,11 +10144,11 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AG12" s="6"/>
       <c r="AH12" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="BK12" s="6"/>
       <c r="BL12" s="5">
@@ -10164,7 +10158,7 @@
         <v>7</v>
       </c>
       <c r="BN12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="CO12" s="6"/>
     </row>
@@ -10173,7 +10167,7 @@
       <c r="C13" s="18"/>
       <c r="D13" s="5"/>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AG13" s="6"/>
       <c r="AH13" s="5"/>
@@ -10195,11 +10189,11 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AG15" s="6"/>
       <c r="AH15" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="BK15" s="6"/>
       <c r="BL15" s="5">
@@ -10209,7 +10203,7 @@
         <v>7</v>
       </c>
       <c r="BN15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="CO15" s="6"/>
     </row>
@@ -10218,7 +10212,7 @@
       <c r="C16" s="18"/>
       <c r="D16" s="5"/>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AG16" s="6"/>
       <c r="AH16" s="5"/>
@@ -10231,7 +10225,7 @@
       <c r="C17" s="18"/>
       <c r="D17" s="5"/>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AG17" s="6"/>
       <c r="AH17" s="5"/>
@@ -10348,10 +10342,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -10383,7 +10377,7 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
@@ -10469,11 +10463,11 @@
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AG23" s="6"/>
       <c r="AH23" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="BK23" s="6"/>
       <c r="BL23" s="5"/>
@@ -10503,11 +10497,11 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AG26" s="6"/>
       <c r="AH26" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="BK26" s="6"/>
       <c r="BL26" s="5"/>
@@ -10527,11 +10521,11 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AG28" s="6"/>
       <c r="AH28" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="BK28" s="6"/>
       <c r="BL28" s="5"/>
@@ -10541,7 +10535,7 @@
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG29" s="6"/>
       <c r="AH29" s="5"/>
@@ -10563,11 +10557,11 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AG31" s="6"/>
       <c r="AH31" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="BK31" s="6"/>
       <c r="BL31" s="5"/>
@@ -10577,7 +10571,7 @@
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AG32" s="6"/>
       <c r="AH32" s="5"/>
@@ -10599,11 +10593,11 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG34" s="6"/>
       <c r="AH34" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="BK34" s="6"/>
       <c r="BL34" s="5"/>
@@ -10613,7 +10607,7 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AG35" s="6"/>
       <c r="AH35" s="5"/>
